--- a/SuRGE_Sharepoint/data/RTP/CH4_045_Four Prong/dataSheets/surgeData045.xlsx
+++ b/SuRGE_Sharepoint/data/RTP/CH4_045_Four Prong/dataSheets/surgeData045.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/RTP/CH4_045_Four Prong/DataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/RTP/CH4_045_Four Prong/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="533" documentId="8_{D736873A-D3DA-441C-BA3F-C6F2E16DEBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BAEEA9E-BB5E-49E7-BA3C-D8FDC7DECB2F}"/>
+  <xr:revisionPtr revIDLastSave="534" documentId="8_{D736873A-D3DA-441C-BA3F-C6F2E16DEBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BFD40BC-A490-450B-B655-D556F61CA5F3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1387,14 +1387,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1432,7 +1428,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1538,7 +1534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1680,7 +1676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1691,8 +1687,8 @@
   <dimension ref="A1:BX19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:C1"/>
+      <pane xSplit="2" topLeftCell="BF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BQ15" sqref="BQ15:BS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2203,15 +2199,6 @@
       <c r="BP3" t="s">
         <v>209</v>
       </c>
-      <c r="BQ3" t="s">
-        <v>216</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>217</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>218</v>
-      </c>
       <c r="BT3">
         <v>2.06</v>
       </c>
@@ -3522,6 +3509,15 @@
       </c>
       <c r="BO15" t="s">
         <v>204</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>216</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>217</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:76" x14ac:dyDescent="0.3">
@@ -4902,57 +4898,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5423,34 +5368,63 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{853CF60F-C636-48D7-AAC6-560EA5EF7B82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5473,6 +5447,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
